--- a/expense_list2016/201606_expense_list.xlsx
+++ b/expense_list2016/201606_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="759">
   <si>
     <t>nid</t>
   </si>
@@ -2268,6 +2268,30 @@
   </si>
   <si>
     <t>장안삼계탕</t>
+  </si>
+  <si>
+    <t>물순환안전국 난지물재생센터 운영과 6월 업무추진비 사용내역</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/10807540</t>
+  </si>
+  <si>
+    <t>사업소</t>
+  </si>
+  <si>
+    <t>물재생센터</t>
+  </si>
+  <si>
+    <t>난지물재생센터</t>
+  </si>
+  <si>
+    <t>운영과</t>
+  </si>
+  <si>
+    <t>2016-06-29 14:01</t>
+  </si>
+  <si>
+    <t>다농마트(마포구 월드컵로235)</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2630,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R349"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -18866,6 +18890,52 @@
       </c>
       <c r="R349">
         <v>112000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18">
+      <c r="A350">
+        <v>10807540</v>
+      </c>
+      <c r="B350" t="s">
+        <v>751</v>
+      </c>
+      <c r="C350" t="s">
+        <v>752</v>
+      </c>
+      <c r="D350" t="s">
+        <v>753</v>
+      </c>
+      <c r="E350" t="s">
+        <v>754</v>
+      </c>
+      <c r="F350" t="s">
+        <v>755</v>
+      </c>
+      <c r="G350" t="s">
+        <v>756</v>
+      </c>
+      <c r="H350"/>
+      <c r="I350">
+        <v>2016</v>
+      </c>
+      <c r="J350">
+        <v>6</v>
+      </c>
+      <c r="K350"/>
+      <c r="L350"/>
+      <c r="M350"/>
+      <c r="N350" t="s">
+        <v>757</v>
+      </c>
+      <c r="O350" t="s">
+        <v>758</v>
+      </c>
+      <c r="P350"/>
+      <c r="Q350" t="s">
+        <v>26</v>
+      </c>
+      <c r="R350">
+        <v>217550</v>
       </c>
     </row>
   </sheetData>
